--- a/2025_heat_exchanger_results.xlsx
+++ b/2025_heat_exchanger_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,40 +516,50 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Pdrop_hot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Pdrop_cold</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Q_hot</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Q_cold</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Q_min</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>NTU</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Effectiveness</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Thot_out</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Tcold_out</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Q_abs</t>
         </is>
@@ -609,28 +619,34 @@
         <v>0.5399</v>
       </c>
       <c r="Q2" t="n">
-        <v>64693.08</v>
+        <v>16363.1411</v>
       </c>
       <c r="R2" t="n">
-        <v>90244.09</v>
+        <v>29759.0896</v>
       </c>
       <c r="S2" t="n">
         <v>64693.08</v>
       </c>
       <c r="T2" t="n">
+        <v>90244.09</v>
+      </c>
+      <c r="U2" t="n">
+        <v>64693.08</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.1808582917910571</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.1534210904042426</v>
-      </c>
-      <c r="V2" t="n">
-        <v>53.86315638383029</v>
-      </c>
       <c r="W2" t="n">
-        <v>24.39930573623658</v>
+        <v>0.1528512169963387</v>
       </c>
       <c r="X2" t="n">
-        <v>9925.28317699945</v>
+        <v>53.88595132014645</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>24.38296477981583</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9888.416309911066</v>
       </c>
     </row>
     <row r="3">
@@ -687,28 +703,34 @@
         <v>0.4917</v>
       </c>
       <c r="Q3" t="n">
-        <v>44737.41</v>
+        <v>34895.1063</v>
       </c>
       <c r="R3" t="n">
-        <v>82192.35000000001</v>
+        <v>35071.2101</v>
       </c>
       <c r="S3" t="n">
         <v>44737.41</v>
       </c>
       <c r="T3" t="n">
+        <v>82192.35000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>44737.41</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.2040025758593345</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.1739964178586396</v>
-      </c>
-      <c r="V3" t="n">
-        <v>53.04014328565442</v>
-      </c>
       <c r="W3" t="n">
-        <v>23.7882600732773</v>
+        <v>0.1732344329881657</v>
       </c>
       <c r="X3" t="n">
-        <v>7784.149532776098</v>
+        <v>53.07062268047338</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23.77167009460543</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7750.060301247774</v>
       </c>
     </row>
     <row r="4">
@@ -721,10 +743,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.267</v>
+        <v>0.277</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="E4" t="n">
         <v>0.012</v>
@@ -756,37 +778,43 @@
         <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.0705</v>
+        <v>1.1105</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3976</v>
+        <v>0.3974</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4199</v>
+        <v>0.426</v>
       </c>
       <c r="Q4" t="n">
-        <v>66468.69</v>
+        <v>15044.5605</v>
       </c>
       <c r="R4" t="n">
-        <v>70187.53999999999</v>
+        <v>40996.3798</v>
       </c>
       <c r="S4" t="n">
-        <v>66468.69</v>
+        <v>66421.12</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1676815980206933</v>
+        <v>71217.38</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1410753373498859</v>
+        <v>66421.12</v>
       </c>
       <c r="V4" t="n">
-        <v>54.35698650600456</v>
+        <v>0.1733809613160516</v>
       </c>
       <c r="W4" t="n">
-        <v>25.34402096139636</v>
+        <v>0.1444439647060836</v>
       </c>
       <c r="X4" t="n">
-        <v>9377.092520032074</v>
+        <v>54.22224141175666</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>25.38864562746267</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9594.130191806002</v>
       </c>
     </row>
     <row r="5">
@@ -843,28 +871,34 @@
         <v>0.5132</v>
       </c>
       <c r="Q5" t="n">
-        <v>62795.82</v>
+        <v>18174.5169</v>
       </c>
       <c r="R5" t="n">
-        <v>85782.97</v>
+        <v>32573.6659</v>
       </c>
       <c r="S5" t="n">
         <v>62795.82</v>
       </c>
       <c r="T5" t="n">
+        <v>85782.97</v>
+      </c>
+      <c r="U5" t="n">
+        <v>62795.82</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.1798615455611625</v>
       </c>
-      <c r="U5" t="n">
-        <v>0.152344006880746</v>
-      </c>
-      <c r="V5" t="n">
-        <v>53.90623972477016</v>
-      </c>
       <c r="W5" t="n">
-        <v>24.46082305903404</v>
+        <v>0.1520349446843325</v>
       </c>
       <c r="X5" t="n">
-        <v>9566.566375313861</v>
+        <v>53.91860221262669</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>24.45177333137711</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9547.158562189952</v>
       </c>
     </row>
     <row r="6">
@@ -921,28 +955,34 @@
         <v>0.5174</v>
       </c>
       <c r="Q6" t="n">
-        <v>62824.27</v>
+        <v>18147.4559</v>
       </c>
       <c r="R6" t="n">
-        <v>86487.86</v>
+        <v>32138.7706</v>
       </c>
       <c r="S6" t="n">
         <v>62824.27</v>
       </c>
       <c r="T6" t="n">
+        <v>86487.86</v>
+      </c>
+      <c r="U6" t="n">
+        <v>62824.27</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.1825922329639665</v>
       </c>
-      <c r="U6" t="n">
-        <v>0.1545192462908279</v>
-      </c>
-      <c r="V6" t="n">
-        <v>53.81923014836688</v>
-      </c>
       <c r="W6" t="n">
-        <v>24.4896748504232</v>
+        <v>0.1541132250800357</v>
       </c>
       <c r="X6" t="n">
-        <v>9707.558854030352</v>
+        <v>53.83547099679857</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>24.47787759368923</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9682.050867845048</v>
       </c>
     </row>
   </sheetData>
